--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89D9D6-4F1A-4729-98A8-921BCDBD577C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFCC28-A276-4756-85D0-892E1372E069}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22084,8 +22084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2126" sqref="A2126"/>
+    <sheetView tabSelected="1" topLeftCell="A1693" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1714" sqref="B1714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35786,7 +35786,7 @@
       <c r="A1712" s="10" t="s">
         <v>5680</v>
       </c>
-      <c r="B1712" s="6" t="s">
+      <c r="B1712" s="30" t="s">
         <v>5710</v>
       </c>
     </row>
@@ -35794,7 +35794,7 @@
       <c r="A1713" s="10" t="s">
         <v>5681</v>
       </c>
-      <c r="B1713" s="6" t="s">
+      <c r="B1713" s="30" t="s">
         <v>5710</v>
       </c>
     </row>
@@ -35802,7 +35802,7 @@
       <c r="A1714" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="B1714" s="6" t="s">
+      <c r="B1714" s="30" t="s">
         <v>5710</v>
       </c>
     </row>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AA6D6-E052-4C0B-97A3-5632B93672EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A9FD9-5651-47B3-A2B3-88945FA552A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8200" uniqueCount="7165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7167">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -21531,6 +21531,12 @@
   </si>
   <si>
     <t>regional environmental center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Pacific Regional Environment Program </t>
+  </si>
+  <si>
+    <t>south pacific regional environment program</t>
   </si>
 </sst>
 </file>
@@ -22077,10 +22083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4100"/>
+  <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4077" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4100" sqref="B4100"/>
+    <sheetView tabSelected="1" topLeftCell="A4079" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4102" sqref="B4102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -54938,6 +54944,22 @@
         <v>7135</v>
       </c>
     </row>
+    <row r="4101" spans="1:2">
+      <c r="A4101" s="16" t="s">
+        <v>7165</v>
+      </c>
+      <c r="B4101" s="6" t="s">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:2">
+      <c r="A4102" t="s">
+        <v>7135</v>
+      </c>
+      <c r="B4102" s="24" t="s">
+        <v>7135</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B4099">
     <sortCondition ref="B2:B4099"/>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A9FD9-5651-47B3-A2B3-88945FA552A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC92C5-BBFA-49D3-8351-43F8B4CCD2BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="7167">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -22085,8 +22085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4079" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4102" sqref="B4102"/>
+    <sheetView tabSelected="1" topLeftCell="A4082" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4103" sqref="A4103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -54953,12 +54953,8 @@
       </c>
     </row>
     <row r="4102" spans="1:2">
-      <c r="A4102" t="s">
-        <v>7135</v>
-      </c>
-      <c r="B4102" s="24" t="s">
-        <v>7135</v>
-      </c>
+      <c r="A4102"/>
+      <c r="B4102" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A2:B4099">

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC92C5-BBFA-49D3-8351-43F8B4CCD2BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E481B0-00E3-4C78-B02D-8495408502D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="7167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7168">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -21537,6 +21537,9 @@
   </si>
   <si>
     <t>south pacific regional environment program</t>
+  </si>
+  <si>
+    <t>united kindgom</t>
   </si>
 </sst>
 </file>
@@ -22086,7 +22089,7 @@
   <dimension ref="A1:C4102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4082" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4103" sqref="A4103"/>
+      <selection activeCell="B4102" sqref="B4102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -54953,8 +54956,12 @@
       </c>
     </row>
     <row r="4102" spans="1:2">
-      <c r="A4102"/>
-      <c r="B4102" s="24"/>
+      <c r="A4102" t="s">
+        <v>7167</v>
+      </c>
+      <c r="B4102" s="24" t="s">
+        <v>479</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:B4099">

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E481B0-00E3-4C78-B02D-8495408502D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3749968-0DFB-4895-81C9-8782AF3391DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22088,8 +22088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4082" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4102" sqref="B4102"/>
+    <sheetView tabSelected="1" topLeftCell="A1473" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1473" sqref="B1473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33878,8 +33878,8 @@
       <c r="A1473" s="16" t="s">
         <v>3727</v>
       </c>
-      <c r="B1473" t="s">
-        <v>4130</v>
+      <c r="B1473" s="6" t="s">
+        <v>5586</v>
       </c>
     </row>
     <row r="1474" spans="1:2" ht="28.8">

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3749968-0DFB-4895-81C9-8782AF3391DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03565627-DA13-440F-AAB2-4F107D33A1FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7167">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -19707,9 +19707,6 @@
   </si>
   <si>
     <t>thyssen bornemisza art contemporary</t>
-  </si>
-  <si>
-    <t>thyssen-bornemisza art contemporary</t>
   </si>
   <si>
     <t>ties- the international eco tourism society</t>
@@ -22088,8 +22085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1473" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1473" sqref="B1473"/>
+    <sheetView tabSelected="1" topLeftCell="A3375" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3392" sqref="B3392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22359,7 +22356,7 @@
         <v>4523</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -22447,7 +22444,7 @@
         <v>4233</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -22455,7 +22452,7 @@
         <v>3512</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -22463,15 +22460,15 @@
         <v>3313</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
+        <v>6995</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>6996</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>6997</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -22996,7 +22993,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="16" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>702</v>
@@ -23036,7 +23033,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="9" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>5776</v>
@@ -23188,10 +23185,10 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="9" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -23463,7 +23460,7 @@
         <v>35</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -24108,7 +24105,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="9" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>1921</v>
@@ -24356,42 +24353,42 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="9" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="9" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="11" t="s">
-        <v>6623</v>
+        <v>6622</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="9" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="9" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -24399,7 +24396,7 @@
         <v>565</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -24407,7 +24404,7 @@
         <v>566</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -24415,7 +24412,7 @@
         <v>1098</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -24423,7 +24420,7 @@
         <v>567</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -24431,7 +24428,7 @@
         <v>568</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -24439,7 +24436,7 @@
         <v>4173</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -24447,7 +24444,7 @@
         <v>3794</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -24852,10 +24849,10 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="9" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -24908,10 +24905,10 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="9" t="s">
+        <v>6999</v>
+      </c>
+      <c r="B352" s="9" t="s">
         <v>7000</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>7001</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -25124,10 +25121,10 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="9" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>6866</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -25252,10 +25249,10 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="9" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -25644,10 +25641,10 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="9" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="28.8">
@@ -25708,10 +25705,10 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="9" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>6844</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -25844,10 +25841,10 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="9" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>6828</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -26012,10 +26009,10 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="9" t="s">
+        <v>7002</v>
+      </c>
+      <c r="B490" s="9" t="s">
         <v>7003</v>
-      </c>
-      <c r="B490" s="9" t="s">
-        <v>7004</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -26044,10 +26041,10 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="9" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -26164,34 +26161,34 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="9" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="9" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="9" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="9" t="s">
+        <v>7004</v>
+      </c>
+      <c r="B512" s="9" t="s">
         <v>7005</v>
-      </c>
-      <c r="B512" s="9" t="s">
-        <v>7006</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -26404,10 +26401,10 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="9" t="s">
+        <v>7006</v>
+      </c>
+      <c r="B539" s="9" t="s">
         <v>7007</v>
-      </c>
-      <c r="B539" s="9" t="s">
-        <v>7008</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -26415,7 +26412,7 @@
         <v>4779</v>
       </c>
       <c r="B540" s="9" t="s">
-        <v>7009</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -26423,7 +26420,7 @@
         <v>4746</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>7009</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -26479,7 +26476,7 @@
         <v>4783</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -26487,7 +26484,7 @@
         <v>734</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -26495,7 +26492,7 @@
         <v>4750</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -26503,7 +26500,7 @@
         <v>62</v>
       </c>
       <c r="B551" s="9" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -26548,7 +26545,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="9" t="s">
-        <v>7011</v>
+        <v>7010</v>
       </c>
       <c r="B557" s="11" t="s">
         <v>4836</v>
@@ -26703,7 +26700,7 @@
         <v>2098</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>7020</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -26711,7 +26708,7 @@
         <v>2070</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>7020</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -26964,10 +26961,10 @@
     </row>
     <row r="609" spans="1:2" ht="28.8">
       <c r="A609" s="9" t="s">
+        <v>7013</v>
+      </c>
+      <c r="B609" s="9" t="s">
         <v>7014</v>
-      </c>
-      <c r="B609" s="9" t="s">
-        <v>7015</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -27156,7 +27153,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="9" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="B633" s="6" t="s">
         <v>4869</v>
@@ -28092,10 +28089,10 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="9" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
       <c r="B750" s="11" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -28159,7 +28156,7 @@
         <v>4985</v>
       </c>
       <c r="B758" s="9" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -28167,7 +28164,7 @@
         <v>4984</v>
       </c>
       <c r="B759" s="9" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -28372,18 +28369,18 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="9" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
       <c r="B785" s="9" t="s">
-        <v>7091</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="9" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>7091</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -28412,10 +28409,10 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="9" t="s">
+        <v>7016</v>
+      </c>
+      <c r="B790" s="9" t="s">
         <v>7017</v>
-      </c>
-      <c r="B790" s="9" t="s">
-        <v>7018</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -28588,10 +28585,10 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="9" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="B812" s="11" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -28599,7 +28596,7 @@
         <v>5291</v>
       </c>
       <c r="B813" s="6" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -28607,7 +28604,7 @@
         <v>4452</v>
       </c>
       <c r="B814" s="6" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -28887,7 +28884,7 @@
         <v>28</v>
       </c>
       <c r="B849" s="13" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -28895,7 +28892,7 @@
         <v>2243</v>
       </c>
       <c r="B850" s="13" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -28980,10 +28977,10 @@
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="9" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="B861" s="11" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -29108,10 +29105,10 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="9" t="s">
+        <v>7020</v>
+      </c>
+      <c r="B877" s="9" t="s">
         <v>7021</v>
-      </c>
-      <c r="B877" s="9" t="s">
-        <v>7022</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -29431,7 +29428,7 @@
         <v>4522</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -29572,10 +29569,10 @@
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="9" t="s">
+        <v>7022</v>
+      </c>
+      <c r="B935" s="9" t="s">
         <v>7023</v>
-      </c>
-      <c r="B935" s="9" t="s">
-        <v>7024</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -29700,7 +29697,7 @@
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>7136</v>
+        <v>7135</v>
       </c>
       <c r="B951" s="9" t="s">
         <v>5145</v>
@@ -30220,10 +30217,10 @@
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" s="9" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="B1016" s="11" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -30252,18 +30249,18 @@
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="9" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B1020" s="6" t="s">
-        <v>7027</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="9" t="s">
+        <v>7025</v>
+      </c>
+      <c r="B1021" s="6" t="s">
         <v>7026</v>
-      </c>
-      <c r="B1021" s="6" t="s">
-        <v>7027</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -30804,10 +30801,10 @@
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" s="9" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="B1089" s="11" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -30908,7 +30905,7 @@
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="11" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="B1102" s="6" t="s">
         <v>5514</v>
@@ -31140,7 +31137,7 @@
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="9" t="s">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B1131" s="6" t="s">
         <v>775</v>
@@ -31156,10 +31153,10 @@
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="9" t="s">
+        <v>7028</v>
+      </c>
+      <c r="B1133" s="9" t="s">
         <v>7029</v>
-      </c>
-      <c r="B1133" s="9" t="s">
-        <v>7030</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -31356,10 +31353,10 @@
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="9" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="B1158" s="11" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -31380,34 +31377,34 @@
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="9" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="B1161" s="11" t="s">
-        <v>6832</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" s="9" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="B1162" s="6" t="s">
-        <v>6833</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" s="9" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="B1163" s="11" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="9" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="B1164" s="11" t="s">
-        <v>6830</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -31415,7 +31412,7 @@
         <v>5773</v>
       </c>
       <c r="B1165" s="9" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -31423,15 +31420,15 @@
         <v>1100</v>
       </c>
       <c r="B1166" s="11" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="9" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="B1167" s="11" t="s">
-        <v>6835</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -31452,18 +31449,18 @@
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="9" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="B1170" s="11" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" s="9" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="B1171" s="11" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -31847,7 +31844,7 @@
         <v>6486</v>
       </c>
       <c r="B1219" s="11" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -31855,7 +31852,7 @@
         <v>6485</v>
       </c>
       <c r="B1220" s="11" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -32111,7 +32108,7 @@
         <v>2619</v>
       </c>
       <c r="B1252" s="6" t="s">
-        <v>7031</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -32119,7 +32116,7 @@
         <v>2050</v>
       </c>
       <c r="B1253" s="6" t="s">
-        <v>7031</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -32327,15 +32324,15 @@
         <v>127</v>
       </c>
       <c r="B1279" s="9" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="9" t="s">
+        <v>7031</v>
+      </c>
+      <c r="B1280" s="9" t="s">
         <v>7032</v>
-      </c>
-      <c r="B1280" s="9" t="s">
-        <v>7033</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -32375,7 +32372,7 @@
         <v>1101</v>
       </c>
       <c r="B1285" s="6" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -32383,7 +32380,7 @@
         <v>571</v>
       </c>
       <c r="B1286" s="6" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -32463,7 +32460,7 @@
         <v>5717</v>
       </c>
       <c r="B1296" s="9" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -32471,7 +32468,7 @@
         <v>5688</v>
       </c>
       <c r="B1297" s="9" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -32479,7 +32476,7 @@
         <v>5689</v>
       </c>
       <c r="B1298" s="9" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -32508,10 +32505,10 @@
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="9" t="s">
+        <v>7034</v>
+      </c>
+      <c r="B1302" s="9" t="s">
         <v>7035</v>
-      </c>
-      <c r="B1302" s="9" t="s">
-        <v>7036</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -33068,10 +33065,10 @@
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="9" t="s">
+        <v>7036</v>
+      </c>
+      <c r="B1372" s="9" t="s">
         <v>7037</v>
-      </c>
-      <c r="B1372" s="9" t="s">
-        <v>7038</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -33095,7 +33092,7 @@
         <v>789</v>
       </c>
       <c r="B1375" s="9" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -33103,7 +33100,7 @@
         <v>135</v>
       </c>
       <c r="B1376" s="9" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -33252,7 +33249,7 @@
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="9" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="B1395" s="9" t="s">
         <v>6533</v>
@@ -33348,10 +33345,10 @@
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="9" t="s">
+        <v>7041</v>
+      </c>
+      <c r="B1407" s="6" t="s">
         <v>7042</v>
-      </c>
-      <c r="B1407" s="6" t="s">
-        <v>7043</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -33428,10 +33425,10 @@
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="9" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="B1417" s="9" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -33492,10 +33489,10 @@
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="9" t="s">
-        <v>7041</v>
+        <v>7040</v>
       </c>
       <c r="B1425" s="9" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -33799,15 +33796,15 @@
         <v>5577</v>
       </c>
       <c r="B1463" s="11" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="9" t="s">
+        <v>7083</v>
+      </c>
+      <c r="B1464" s="11" t="s">
         <v>7084</v>
-      </c>
-      <c r="B1464" s="11" t="s">
-        <v>7085</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -33815,7 +33812,7 @@
         <v>5580</v>
       </c>
       <c r="B1465" s="11" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -33919,7 +33916,7 @@
         <v>6011</v>
       </c>
       <c r="B1478" s="11" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -33996,10 +33993,10 @@
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="9" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
       <c r="B1488" s="9" t="s">
-        <v>7044</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -34023,7 +34020,7 @@
         <v>1836</v>
       </c>
       <c r="B1491" s="9" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -34031,7 +34028,7 @@
         <v>1806</v>
       </c>
       <c r="B1492" s="9" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -34375,7 +34372,7 @@
         <v>1249</v>
       </c>
       <c r="B1535" s="6" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -34383,7 +34380,7 @@
         <v>2639</v>
       </c>
       <c r="B1536" s="6" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -34463,7 +34460,7 @@
         <v>5992</v>
       </c>
       <c r="B1546" s="11" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -34471,7 +34468,7 @@
         <v>6009</v>
       </c>
       <c r="B1547" s="11" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -34596,10 +34593,10 @@
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="9" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="B1563" s="11" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -34628,18 +34625,18 @@
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="9" t="s">
-        <v>7048</v>
+        <v>7047</v>
       </c>
       <c r="B1567" s="9" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="9" t="s">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="B1568" s="6" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -34948,10 +34945,10 @@
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" t="s">
+        <v>7136</v>
+      </c>
+      <c r="B1607" t="s">
         <v>7137</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>7138</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -35164,10 +35161,10 @@
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" s="9" t="s">
+        <v>7048</v>
+      </c>
+      <c r="B1634" s="9" t="s">
         <v>7049</v>
-      </c>
-      <c r="B1634" s="9" t="s">
-        <v>7050</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -35239,7 +35236,7 @@
         <v>169</v>
       </c>
       <c r="B1643" s="6" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -35415,7 +35412,7 @@
         <v>3324</v>
       </c>
       <c r="B1665" s="6" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -36004,10 +36001,10 @@
     </row>
     <row r="1739" spans="1:2">
       <c r="A1739" s="9" t="s">
+        <v>6557</v>
+      </c>
+      <c r="B1739" s="11" t="s">
         <v>6558</v>
-      </c>
-      <c r="B1739" s="11" t="s">
-        <v>6559</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -36015,7 +36012,7 @@
         <v>2102</v>
       </c>
       <c r="B1740" s="11" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -36023,7 +36020,7 @@
         <v>2076</v>
       </c>
       <c r="B1741" s="11" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -36340,10 +36337,10 @@
     </row>
     <row r="1781" spans="1:2">
       <c r="A1781" s="9" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="B1781" s="11" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -36444,7 +36441,7 @@
     </row>
     <row r="1794" spans="1:2">
       <c r="A1794" s="6" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="B1794" s="6" t="s">
         <v>184</v>
@@ -36628,10 +36625,10 @@
     </row>
     <row r="1817" spans="1:2">
       <c r="A1817" s="9" t="s">
+        <v>7124</v>
+      </c>
+      <c r="B1817" s="9" t="s">
         <v>7125</v>
-      </c>
-      <c r="B1817" s="9" t="s">
-        <v>7126</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -36828,10 +36825,10 @@
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842" s="9" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="B1842" s="11" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -37468,10 +37465,10 @@
     </row>
     <row r="1922" spans="1:2">
       <c r="A1922" s="9" t="s">
-        <v>6747</v>
+        <v>6746</v>
       </c>
       <c r="B1922" s="6" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -37516,7 +37513,7 @@
     </row>
     <row r="1928" spans="1:2">
       <c r="A1928" s="9" t="s">
-        <v>7051</v>
+        <v>7050</v>
       </c>
       <c r="B1928" s="9" t="s">
         <v>2883</v>
@@ -37580,10 +37577,10 @@
     </row>
     <row r="1936" spans="1:2">
       <c r="A1936" s="9" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="B1936" s="11" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -37599,15 +37596,15 @@
         <v>3024</v>
       </c>
       <c r="B1938" s="6" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
       <c r="A1939" s="9" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="B1939" s="6" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -37780,10 +37777,10 @@
     </row>
     <row r="1961" spans="1:2">
       <c r="A1961" s="9" t="s">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="B1961" s="9" t="s">
-        <v>7052</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -37908,10 +37905,10 @@
     </row>
     <row r="1977" spans="1:2">
       <c r="A1977" s="9" t="s">
-        <v>7055</v>
+        <v>7054</v>
       </c>
       <c r="B1977" s="9" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -38020,10 +38017,10 @@
     </row>
     <row r="1991" spans="1:2">
       <c r="A1991" s="9" t="s">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="B1991" s="9" t="s">
-        <v>7056</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -38124,10 +38121,10 @@
     </row>
     <row r="2004" spans="1:2">
       <c r="A2004" s="9" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
       <c r="B2004" s="9" t="s">
-        <v>7058</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -38156,10 +38153,10 @@
     </row>
     <row r="2008" spans="1:2">
       <c r="A2008" s="9" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="B2008" s="11" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -38196,10 +38193,10 @@
     </row>
     <row r="2013" spans="1:2">
       <c r="A2013" s="9" t="s">
+        <v>6564</v>
+      </c>
+      <c r="B2013" s="6" t="s">
         <v>6565</v>
-      </c>
-      <c r="B2013" s="6" t="s">
-        <v>6566</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -38324,10 +38321,10 @@
     </row>
     <row r="2029" spans="1:2">
       <c r="A2029" s="9" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="B2029" s="6" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -38671,7 +38668,7 @@
         <v>5301</v>
       </c>
       <c r="B2072" s="11" t="s">
-        <v>7060</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -38679,7 +38676,7 @@
         <v>5313</v>
       </c>
       <c r="B2073" s="11" t="s">
-        <v>7060</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -38687,7 +38684,7 @@
         <v>5306</v>
       </c>
       <c r="B2074" s="11" t="s">
-        <v>7060</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -39004,10 +39001,10 @@
     </row>
     <row r="2114" spans="1:2">
       <c r="A2114" s="9" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="B2114" s="6" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -39031,7 +39028,7 @@
         <v>4266</v>
       </c>
       <c r="B2117" s="6" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -39039,7 +39036,7 @@
         <v>3767</v>
       </c>
       <c r="B2118" s="6" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -39364,10 +39361,10 @@
     </row>
     <row r="2159" spans="1:2">
       <c r="A2159" s="9" t="s">
+        <v>7060</v>
+      </c>
+      <c r="B2159" s="9" t="s">
         <v>7061</v>
-      </c>
-      <c r="B2159" s="9" t="s">
-        <v>7062</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -39516,10 +39513,10 @@
     </row>
     <row r="2178" spans="1:2">
       <c r="A2178" s="9" t="s">
-        <v>7064</v>
+        <v>7063</v>
       </c>
       <c r="B2178" s="5" t="s">
-        <v>7063</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -39588,18 +39585,18 @@
     </row>
     <row r="2187" spans="1:2">
       <c r="A2187" s="9" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="B2187" s="6" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
       <c r="A2188" s="9" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="B2188" s="6" t="s">
-        <v>6854</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -40076,7 +40073,7 @@
     </row>
     <row r="2248" spans="1:2">
       <c r="A2248" s="9" t="s">
-        <v>7069</v>
+        <v>7068</v>
       </c>
       <c r="B2248" s="9" t="s">
         <v>866</v>
@@ -40188,10 +40185,10 @@
     </row>
     <row r="2262" spans="1:2">
       <c r="A2262" s="9" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="B2262" s="6" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -40324,10 +40321,10 @@
     </row>
     <row r="2279" spans="1:2">
       <c r="A2279" s="9" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="B2279" s="6" t="s">
-        <v>6859</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="2280" spans="1:2">
@@ -40508,10 +40505,10 @@
     </row>
     <row r="2302" spans="1:2">
       <c r="A2302" t="s">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="B2302" s="16" t="s">
-        <v>7131</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="2303" spans="1:2">
@@ -40540,18 +40537,18 @@
     </row>
     <row r="2306" spans="1:3">
       <c r="A2306" s="11" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="B2306" s="11" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
       <c r="A2307" s="9" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="B2307" s="11" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -40559,7 +40556,7 @@
         <v>3824</v>
       </c>
       <c r="B2308" s="11" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -40572,7 +40569,7 @@
     </row>
     <row r="2310" spans="1:3">
       <c r="A2310" s="9" t="s">
-        <v>6661</v>
+        <v>6660</v>
       </c>
       <c r="B2310" s="11" t="s">
         <v>3050</v>
@@ -40580,15 +40577,15 @@
     </row>
     <row r="2311" spans="1:3">
       <c r="A2311" s="9" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="B2311" s="11" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
       <c r="A2312" s="9" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="B2312" s="6" t="s">
         <v>4861</v>
@@ -40710,7 +40707,7 @@
         <v>3777</v>
       </c>
       <c r="B2326" s="11" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="C2326" s="1"/>
     </row>
@@ -40719,7 +40716,7 @@
         <v>4268</v>
       </c>
       <c r="B2327" s="6" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="C2327" s="1"/>
     </row>
@@ -41007,7 +41004,7 @@
         <v>4764</v>
       </c>
       <c r="B2359" s="9" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
       <c r="C2359" s="1"/>
     </row>
@@ -41016,7 +41013,7 @@
         <v>4801</v>
       </c>
       <c r="B2360" s="9" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
       <c r="C2360" s="1"/>
     </row>
@@ -41040,19 +41037,19 @@
     </row>
     <row r="2363" spans="1:3">
       <c r="A2363" s="9" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
       <c r="B2363" s="11" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="C2363" s="1"/>
     </row>
     <row r="2364" spans="1:3">
       <c r="A2364" s="9" t="s">
+        <v>7011</v>
+      </c>
+      <c r="B2364" s="6" t="s">
         <v>7012</v>
-      </c>
-      <c r="B2364" s="6" t="s">
-        <v>7013</v>
       </c>
       <c r="C2364" s="1"/>
     </row>
@@ -41061,7 +41058,7 @@
         <v>5153</v>
       </c>
       <c r="B2365" s="6" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -41069,7 +41066,7 @@
         <v>5165</v>
       </c>
       <c r="B2366" s="9" t="s">
-        <v>7072</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -41218,18 +41215,18 @@
     </row>
     <row r="2385" spans="1:2">
       <c r="A2385" s="10" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="B2385" s="7" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="2386" spans="1:2">
       <c r="A2386" s="10" t="s">
+        <v>7104</v>
+      </c>
+      <c r="B2386" s="7" t="s">
         <v>7105</v>
-      </c>
-      <c r="B2386" s="7" t="s">
-        <v>7106</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -41242,26 +41239,26 @@
     </row>
     <row r="2388" spans="1:2">
       <c r="A2388" s="5" t="s">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="B2388" s="7" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
       <c r="A2389" s="9" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="B2389" s="7" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
       <c r="A2390" s="5" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="B2390" s="7" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -41269,7 +41266,7 @@
         <v>2085</v>
       </c>
       <c r="B2391" s="7" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="2392" spans="1:2" ht="28.8">
@@ -41277,15 +41274,15 @@
         <v>2039</v>
       </c>
       <c r="B2392" s="11" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
       <c r="A2393" s="12" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="B2393" s="7" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="2394" spans="1:2">
@@ -41298,18 +41295,18 @@
     </row>
     <row r="2395" spans="1:2">
       <c r="A2395" s="7" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
       <c r="B2395" s="7" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
       <c r="A2396" s="5" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="B2396" s="7" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -41692,7 +41689,7 @@
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" s="5" t="s">
-        <v>7073</v>
+        <v>7072</v>
       </c>
       <c r="B2444" s="21" t="s">
         <v>3306</v>
@@ -41789,7 +41786,7 @@
     </row>
     <row r="2456" spans="1:2">
       <c r="A2456" s="5" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="B2456" s="9" t="s">
         <v>893</v>
@@ -41861,10 +41858,10 @@
     </row>
     <row r="2465" spans="1:2">
       <c r="A2465" s="5" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="B2465" s="6" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -42197,10 +42194,10 @@
     </row>
     <row r="2507" spans="1:2">
       <c r="A2507" s="5" t="s">
+        <v>6955</v>
+      </c>
+      <c r="B2507" s="11" t="s">
         <v>6956</v>
-      </c>
-      <c r="B2507" s="11" t="s">
-        <v>6957</v>
       </c>
     </row>
     <row r="2508" spans="1:2">
@@ -42293,7 +42290,7 @@
     </row>
     <row r="2519" spans="1:2">
       <c r="A2519" s="25" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="B2519" s="11" t="s">
         <v>905</v>
@@ -42477,18 +42474,18 @@
     </row>
     <row r="2542" spans="1:2">
       <c r="A2542" s="5" t="s">
+        <v>7112</v>
+      </c>
+      <c r="B2542" s="5" t="s">
         <v>7113</v>
-      </c>
-      <c r="B2542" s="5" t="s">
-        <v>7114</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
       <c r="A2543" s="5" t="s">
-        <v>7112</v>
+        <v>7111</v>
       </c>
       <c r="B2543" s="5" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="2544" spans="1:2">
@@ -42597,10 +42594,10 @@
     </row>
     <row r="2557" spans="1:2">
       <c r="A2557" s="5" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="B2557" s="7" t="s">
-        <v>6864</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -42765,7 +42762,7 @@
     </row>
     <row r="2578" spans="1:2">
       <c r="A2578" s="5" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
       <c r="B2578" s="7" t="s">
         <v>6189</v>
@@ -43013,10 +43010,10 @@
     </row>
     <row r="2609" spans="1:2">
       <c r="A2609" s="5" t="s">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="B2609" s="7" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -43024,7 +43021,7 @@
         <v>3253</v>
       </c>
       <c r="B2610" s="7" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -43032,7 +43029,7 @@
         <v>392</v>
       </c>
       <c r="B2611" s="7" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -43040,7 +43037,7 @@
         <v>3397</v>
       </c>
       <c r="B2612" s="7" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -43048,7 +43045,7 @@
         <v>999</v>
       </c>
       <c r="B2613" s="7" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -43192,7 +43189,7 @@
         <v>393</v>
       </c>
       <c r="B2631" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -43200,7 +43197,7 @@
         <v>394</v>
       </c>
       <c r="B2632" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -43208,7 +43205,7 @@
         <v>395</v>
       </c>
       <c r="B2633" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -43216,7 +43213,7 @@
         <v>396</v>
       </c>
       <c r="B2634" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -43224,7 +43221,7 @@
         <v>1000</v>
       </c>
       <c r="B2635" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -43232,7 +43229,7 @@
         <v>3390</v>
       </c>
       <c r="B2636" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2637" spans="1:2">
@@ -43240,7 +43237,7 @@
         <v>397</v>
       </c>
       <c r="B2637" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -43248,7 +43245,7 @@
         <v>398</v>
       </c>
       <c r="B2638" s="7" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -43461,18 +43458,18 @@
     </row>
     <row r="2665" spans="1:2">
       <c r="A2665" s="5" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="B2665" s="6" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
       <c r="A2666" s="5" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
       <c r="B2666" s="6" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -43664,7 +43661,7 @@
         <v>3027</v>
       </c>
       <c r="B2690" s="6" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2691" spans="1:2">
@@ -43672,7 +43669,7 @@
         <v>6376</v>
       </c>
       <c r="B2691" s="11" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -43680,7 +43677,7 @@
         <v>6377</v>
       </c>
       <c r="B2692" s="6" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -43749,10 +43746,10 @@
     </row>
     <row r="2701" spans="1:2">
       <c r="A2701" s="5" t="s">
+        <v>7064</v>
+      </c>
+      <c r="B2701" s="6" t="s">
         <v>7065</v>
-      </c>
-      <c r="B2701" s="6" t="s">
-        <v>7066</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -43792,7 +43789,7 @@
         <v>4936</v>
       </c>
       <c r="B2706" s="9" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -43800,7 +43797,7 @@
         <v>940</v>
       </c>
       <c r="B2707" s="9" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -43808,7 +43805,7 @@
         <v>322</v>
       </c>
       <c r="B2708" s="9" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -43829,7 +43826,7 @@
     </row>
     <row r="2711" spans="1:2">
       <c r="A2711" s="5" t="s">
-        <v>7078</v>
+        <v>7077</v>
       </c>
       <c r="B2711" s="11" t="s">
         <v>4947</v>
@@ -43888,7 +43885,7 @@
         <v>325</v>
       </c>
       <c r="B2718" s="11" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -43920,7 +43917,7 @@
         <v>6451</v>
       </c>
       <c r="B2722" s="9" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -43928,15 +43925,15 @@
         <v>6430</v>
       </c>
       <c r="B2723" s="9" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
       <c r="A2724" s="5" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="B2724" s="11" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -44053,10 +44050,10 @@
     </row>
     <row r="2739" spans="1:2">
       <c r="A2739" s="5" t="s">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="B2739" s="9" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -44117,10 +44114,10 @@
     </row>
     <row r="2747" spans="1:2">
       <c r="A2747" s="5" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
       <c r="B2747" s="6" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -44341,18 +44338,18 @@
     </row>
     <row r="2775" spans="1:2">
       <c r="A2775" s="5" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="B2775" s="11" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
       <c r="A2776" s="5" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="B2776" s="6" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -44461,10 +44458,10 @@
     </row>
     <row r="2790" spans="1:2">
       <c r="A2790" s="5" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
       <c r="B2790" s="7" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -44693,10 +44690,10 @@
     </row>
     <row r="2819" spans="1:2">
       <c r="A2819" s="5" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="B2819" s="5" t="s">
-        <v>7082</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -45336,15 +45333,15 @@
         <v>355</v>
       </c>
       <c r="B2899" s="11" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
       <c r="A2900" s="25" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="B2900" s="11" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -46277,10 +46274,10 @@
     </row>
     <row r="3017" spans="1:2">
       <c r="A3017" s="5" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="B3017" s="11" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="3018" spans="1:2">
@@ -46517,10 +46514,10 @@
     </row>
     <row r="3047" spans="1:2">
       <c r="A3047" s="25" t="s">
+        <v>7146</v>
+      </c>
+      <c r="B3047" s="11" t="s">
         <v>7147</v>
-      </c>
-      <c r="B3047" s="11" t="s">
-        <v>7148</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -46549,7 +46546,7 @@
     </row>
     <row r="3051" spans="1:2">
       <c r="A3051" s="5" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="B3051" s="9" t="s">
         <v>4807</v>
@@ -46733,10 +46730,10 @@
     </row>
     <row r="3074" spans="1:2">
       <c r="A3074" s="5" t="s">
-        <v>7087</v>
+        <v>7086</v>
       </c>
       <c r="B3074" s="5" t="s">
-        <v>7087</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -46797,10 +46794,10 @@
     </row>
     <row r="3082" spans="1:2">
       <c r="A3082" s="5" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="B3082" s="11" t="s">
-        <v>6840</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -46829,10 +46826,10 @@
     </row>
     <row r="3086" spans="1:2">
       <c r="A3086" s="5" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="B3086" s="7" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="3087" spans="1:2">
@@ -46909,10 +46906,10 @@
     </row>
     <row r="3096" spans="1:2">
       <c r="A3096" s="5" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="B3096" s="11" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="3097" spans="1:2">
@@ -47221,7 +47218,7 @@
     </row>
     <row r="3135" spans="1:2">
       <c r="A3135" s="5" t="s">
-        <v>7095</v>
+        <v>7094</v>
       </c>
       <c r="B3135" s="7" t="s">
         <v>6542</v>
@@ -47560,15 +47557,15 @@
         <v>5418</v>
       </c>
       <c r="B3177" s="6" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
       <c r="A3178" s="5" t="s">
+        <v>7095</v>
+      </c>
+      <c r="B3178" s="6" t="s">
         <v>7096</v>
-      </c>
-      <c r="B3178" s="6" t="s">
-        <v>7097</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -47576,7 +47573,7 @@
         <v>5469</v>
       </c>
       <c r="B3179" s="6" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -47741,7 +47738,7 @@
     </row>
     <row r="3200" spans="1:2">
       <c r="A3200" s="5" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="B3200" s="11" t="s">
         <v>5091</v>
@@ -47805,10 +47802,10 @@
     </row>
     <row r="3208" spans="1:2">
       <c r="A3208" s="5" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="B3208" s="11" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="3209" spans="1:2">
@@ -47896,15 +47893,15 @@
         <v>6482</v>
       </c>
       <c r="B3219" s="6" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
       <c r="A3220" s="5" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
       <c r="B3220" s="11" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="3221" spans="1:2">
@@ -47912,7 +47909,7 @@
         <v>6481</v>
       </c>
       <c r="B3221" s="11" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -47957,18 +47954,18 @@
     </row>
     <row r="3227" spans="1:2">
       <c r="A3227" s="5" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="B3227" s="11" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
       <c r="A3228" s="5" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
       <c r="B3228" s="11" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -48176,7 +48173,7 @@
         <v>4270</v>
       </c>
       <c r="B3254" s="6" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -48184,15 +48181,15 @@
         <v>3784</v>
       </c>
       <c r="B3255" s="6" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
       <c r="A3256" s="5" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="B3256" s="6" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -48421,7 +48418,7 @@
     </row>
     <row r="3285" spans="1:2">
       <c r="A3285" s="5" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="B3285" s="7" t="s">
         <v>1029</v>
@@ -48885,10 +48882,10 @@
     </row>
     <row r="3343" spans="1:2">
       <c r="A3343" s="5" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="B3343" s="11" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -48896,7 +48893,7 @@
         <v>4272</v>
       </c>
       <c r="B3344" s="6" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -48904,7 +48901,7 @@
         <v>3786</v>
       </c>
       <c r="B3345" s="11" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -49048,7 +49045,7 @@
         <v>1108</v>
       </c>
       <c r="B3363" s="6" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="3364" spans="1:2">
@@ -49056,7 +49053,7 @@
         <v>582</v>
       </c>
       <c r="B3364" s="7" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -49125,10 +49122,10 @@
     </row>
     <row r="3373" spans="1:2">
       <c r="A3373" s="5" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
       <c r="B3373" s="5" t="s">
-        <v>7100</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -49189,10 +49186,10 @@
     </row>
     <row r="3381" spans="1:2">
       <c r="A3381" s="25" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="B3381" s="7" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -49200,7 +49197,7 @@
         <v>2445</v>
       </c>
       <c r="B3382" s="7" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -49221,10 +49218,10 @@
     </row>
     <row r="3385" spans="1:2">
       <c r="A3385" s="5" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="B3385" s="7" t="s">
-        <v>6855</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -49280,7 +49277,7 @@
         <v>6555</v>
       </c>
       <c r="B3392" s="9" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -49296,7 +49293,7 @@
         <v>458</v>
       </c>
       <c r="B3394" s="9" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -49304,7 +49301,7 @@
         <v>1046</v>
       </c>
       <c r="B3395" s="5" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -49373,10 +49370,10 @@
     </row>
     <row r="3404" spans="1:2">
       <c r="A3404" s="5" t="s">
+        <v>6560</v>
+      </c>
+      <c r="B3404" s="5" t="s">
         <v>6561</v>
-      </c>
-      <c r="B3404" s="5" t="s">
-        <v>6562</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -49493,10 +49490,10 @@
     </row>
     <row r="3419" spans="1:2">
       <c r="A3419" s="5" t="s">
+        <v>6562</v>
+      </c>
+      <c r="B3419" s="9" t="s">
         <v>6563</v>
-      </c>
-      <c r="B3419" s="9" t="s">
-        <v>6564</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -49600,7 +49597,7 @@
         <v>4035</v>
       </c>
       <c r="B3432" s="7" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -49672,7 +49669,7 @@
         <v>3438</v>
       </c>
       <c r="B3441" s="7" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -49680,15 +49677,15 @@
         <v>3460</v>
       </c>
       <c r="B3442" s="11" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
       <c r="A3443" s="5" t="s">
+        <v>6573</v>
+      </c>
+      <c r="B3443" s="5" t="s">
         <v>6574</v>
-      </c>
-      <c r="B3443" s="5" t="s">
-        <v>6575</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -49733,10 +49730,10 @@
     </row>
     <row r="3449" spans="1:2">
       <c r="A3449" s="5" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
       <c r="B3449" s="7" t="s">
-        <v>6887</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -49749,18 +49746,18 @@
     </row>
     <row r="3451" spans="1:2">
       <c r="A3451" s="5" t="s">
+        <v>6575</v>
+      </c>
+      <c r="B3451" s="5" t="s">
         <v>6576</v>
-      </c>
-      <c r="B3451" s="5" t="s">
-        <v>6577</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
       <c r="A3452" s="5" t="s">
+        <v>6577</v>
+      </c>
+      <c r="B3452" s="9" t="s">
         <v>6578</v>
-      </c>
-      <c r="B3452" s="9" t="s">
-        <v>6579</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -49773,10 +49770,10 @@
     </row>
     <row r="3454" spans="1:2">
       <c r="A3454" s="5" t="s">
+        <v>6579</v>
+      </c>
+      <c r="B3454" s="9" t="s">
         <v>6580</v>
-      </c>
-      <c r="B3454" s="9" t="s">
-        <v>6581</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -49792,7 +49789,7 @@
         <v>3176</v>
       </c>
       <c r="B3456" s="7" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="3457" spans="1:2" ht="28.8">
@@ -49800,12 +49797,12 @@
         <v>3141</v>
       </c>
       <c r="B3457" s="7" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
       <c r="A3458" s="5" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="B3458" s="9" t="s">
         <v>3414</v>
@@ -49877,18 +49874,18 @@
     </row>
     <row r="3467" spans="1:2">
       <c r="A3467" s="5" t="s">
+        <v>6582</v>
+      </c>
+      <c r="B3467" s="9" t="s">
         <v>6583</v>
-      </c>
-      <c r="B3467" s="9" t="s">
-        <v>6584</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
       <c r="A3468" s="5" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B3468" s="9" t="s">
         <v>6585</v>
-      </c>
-      <c r="B3468" s="9" t="s">
-        <v>6586</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -49909,10 +49906,10 @@
     </row>
     <row r="3471" spans="1:2">
       <c r="A3471" s="5" t="s">
+        <v>6586</v>
+      </c>
+      <c r="B3471" s="9" t="s">
         <v>6587</v>
-      </c>
-      <c r="B3471" s="9" t="s">
-        <v>6588</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -49933,7 +49930,7 @@
     </row>
     <row r="3474" spans="1:2">
       <c r="A3474" s="25" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="B3474" s="6" t="s">
         <v>1059</v>
@@ -50045,10 +50042,10 @@
     </row>
     <row r="3488" spans="1:2">
       <c r="A3488" s="5" t="s">
+        <v>6608</v>
+      </c>
+      <c r="B3488" s="5" t="s">
         <v>6609</v>
-      </c>
-      <c r="B3488" s="5" t="s">
-        <v>6610</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -50117,10 +50114,10 @@
     </row>
     <row r="3497" spans="1:2">
       <c r="A3497" s="5" t="s">
+        <v>6928</v>
+      </c>
+      <c r="B3497" s="7" t="s">
         <v>6929</v>
-      </c>
-      <c r="B3497" s="7" t="s">
-        <v>6930</v>
       </c>
     </row>
     <row r="3498" spans="1:2" ht="28.8">
@@ -50141,10 +50138,10 @@
     </row>
     <row r="3500" spans="1:2">
       <c r="A3500" s="5" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="B3500" s="6" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -50181,7 +50178,7 @@
     </row>
     <row r="3505" spans="1:2">
       <c r="A3505" s="5" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
       <c r="B3505" s="6" t="s">
         <v>2852</v>
@@ -50245,7 +50242,7 @@
     </row>
     <row r="3513" spans="1:2">
       <c r="A3513" s="5" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B3513" s="6" t="s">
         <v>1072</v>
@@ -50285,7 +50282,7 @@
     </row>
     <row r="3518" spans="1:2">
       <c r="A3518" s="5" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="B3518" s="5" t="s">
         <v>1072</v>
@@ -50405,7 +50402,7 @@
     </row>
     <row r="3533" spans="1:2" ht="28.8">
       <c r="A3533" s="5" t="s">
-        <v>7111</v>
+        <v>7110</v>
       </c>
       <c r="B3533" s="9" t="s">
         <v>1074</v>
@@ -50413,10 +50410,10 @@
     </row>
     <row r="3534" spans="1:2">
       <c r="A3534" s="5" t="s">
+        <v>6610</v>
+      </c>
+      <c r="B3534" s="9" t="s">
         <v>6611</v>
-      </c>
-      <c r="B3534" s="9" t="s">
-        <v>6612</v>
       </c>
     </row>
     <row r="3535" spans="1:2">
@@ -50501,7 +50498,7 @@
     </row>
     <row r="3545" spans="1:2">
       <c r="A3545" s="5" t="s">
-        <v>7088</v>
+        <v>7087</v>
       </c>
       <c r="B3545" s="7" t="s">
         <v>523</v>
@@ -50621,7 +50618,7 @@
     </row>
     <row r="3560" spans="1:2">
       <c r="A3560" s="5" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
       <c r="B3560" s="6" t="s">
         <v>523</v>
@@ -50669,7 +50666,7 @@
     </row>
     <row r="3566" spans="1:2">
       <c r="A3566" s="10" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="B3566" s="7" t="s">
         <v>523</v>
@@ -50677,7 +50674,7 @@
     </row>
     <row r="3567" spans="1:2">
       <c r="A3567" s="25" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="B3567" s="7" t="s">
         <v>523</v>
@@ -50717,7 +50714,7 @@
     </row>
     <row r="3572" spans="1:2">
       <c r="A3572" s="5" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="B3572" s="11" t="s">
         <v>529</v>
@@ -50773,26 +50770,26 @@
     </row>
     <row r="3579" spans="1:2">
       <c r="A3579" s="5" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B3579" s="11" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
       <c r="A3580" s="5" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B3580" s="11" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="3581" spans="1:2">
       <c r="A3581" s="5" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B3581" s="11" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -50813,7 +50810,7 @@
     </row>
     <row r="3584" spans="1:2">
       <c r="A3584" s="5" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="B3584" s="9" t="s">
         <v>1083</v>
@@ -50885,26 +50882,26 @@
     </row>
     <row r="3593" spans="1:2">
       <c r="A3593" s="5" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="B3593" s="11" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
       <c r="A3594" s="5" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="B3594" s="5" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
       <c r="A3595" s="5" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="B3595" s="5" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -50981,18 +50978,18 @@
     </row>
     <row r="3605" spans="1:2">
       <c r="A3605" s="5" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="B3605" s="6" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
       <c r="A3606" s="5" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="B3606" s="6" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -51000,7 +50997,7 @@
         <v>1064</v>
       </c>
       <c r="B3607" s="11" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -51008,7 +51005,7 @@
         <v>481</v>
       </c>
       <c r="B3608" s="11" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -51016,7 +51013,7 @@
         <v>482</v>
       </c>
       <c r="B3609" s="11" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -51125,26 +51122,26 @@
     </row>
     <row r="3623" spans="1:2">
       <c r="A3623" s="5" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="B3623" s="7" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
       <c r="A3624" s="9" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="B3624" s="17" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
       <c r="A3625" s="5" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="B3625" s="17" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -51152,7 +51149,7 @@
         <v>1071</v>
       </c>
       <c r="B3626" s="9" t="s">
-        <v>7110</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -51200,7 +51197,7 @@
         <v>622</v>
       </c>
       <c r="B3632" s="7" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -51208,7 +51205,7 @@
         <v>3013</v>
       </c>
       <c r="B3633" s="7" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -51216,7 +51213,7 @@
         <v>2980</v>
       </c>
       <c r="B3634" s="7" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -51224,7 +51221,7 @@
         <v>623</v>
       </c>
       <c r="B3635" s="7" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -51232,7 +51229,7 @@
         <v>1142</v>
       </c>
       <c r="B3636" s="7" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -51301,26 +51298,26 @@
     </row>
     <row r="3645" spans="1:2">
       <c r="A3645" s="5" t="s">
-        <v>6932</v>
+        <v>6931</v>
       </c>
       <c r="B3645" s="5" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
       <c r="A3646" s="5" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="B3646" s="5" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
       <c r="A3647" s="7" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="B3647" s="7" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -51328,7 +51325,7 @@
         <v>2866</v>
       </c>
       <c r="B3648" s="11" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -51336,15 +51333,15 @@
         <v>2077</v>
       </c>
       <c r="B3649" s="11" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
       <c r="A3650" s="5" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="B3650" s="9" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -51357,34 +51354,34 @@
     </row>
     <row r="3652" spans="1:2">
       <c r="A3652" s="5" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="B3652" s="11" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="3653" spans="1:2">
       <c r="A3653" s="5" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="B3653" s="7" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="3654" spans="1:2">
       <c r="A3654" s="5" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="B3654" s="7" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
       <c r="A3655" s="5" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="B3655" s="7" t="s">
-        <v>6873</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -51437,10 +51434,10 @@
     </row>
     <row r="3662" spans="1:2">
       <c r="A3662" s="5" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
       <c r="B3662" s="7" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -51461,10 +51458,10 @@
     </row>
     <row r="3665" spans="1:2">
       <c r="A3665" s="5" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="B3665" s="7" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="3666" spans="1:2" ht="28.8">
@@ -51477,18 +51474,18 @@
     </row>
     <row r="3667" spans="1:2">
       <c r="A3667" s="5" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="B3667" s="7" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
       <c r="A3668" s="5" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="B3668" s="7" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -51509,10 +51506,10 @@
     </row>
     <row r="3671" spans="1:2">
       <c r="A3671" s="5" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="B3671" s="7" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -51525,10 +51522,10 @@
     </row>
     <row r="3673" spans="1:2">
       <c r="A3673" s="5" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="B3673" s="7" t="s">
-        <v>6853</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -51541,10 +51538,10 @@
     </row>
     <row r="3675" spans="1:2" ht="28.8">
       <c r="A3675" s="5" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="B3675" s="7" t="s">
-        <v>6842</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -51557,10 +51554,10 @@
     </row>
     <row r="3677" spans="1:2">
       <c r="A3677" s="5" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="B3677" s="7" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -51568,7 +51565,7 @@
         <v>3783</v>
       </c>
       <c r="B3678" s="7" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -51576,7 +51573,7 @@
         <v>4279</v>
       </c>
       <c r="B3679" s="7" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -51597,26 +51594,26 @@
     </row>
     <row r="3682" spans="1:2">
       <c r="A3682" s="5" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="B3682" s="7" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
       <c r="A3683" s="5" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="B3683" s="7" t="s">
-        <v>6871</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
       <c r="A3684" s="5" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="B3684" s="11" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -51645,10 +51642,10 @@
     </row>
     <row r="3688" spans="1:2">
       <c r="A3688" s="5" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="B3688" s="7" t="s">
-        <v>6872</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -51661,7 +51658,7 @@
     </row>
     <row r="3690" spans="1:2">
       <c r="A3690" s="5" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="B3690" s="7" t="s">
         <v>1113</v>
@@ -51717,10 +51714,10 @@
     </row>
     <row r="3697" spans="1:2">
       <c r="A3697" s="5" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="B3697" s="11" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -51741,10 +51738,10 @@
     </row>
     <row r="3700" spans="1:2">
       <c r="A3700" s="5" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="B3700" s="7" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -51797,42 +51794,42 @@
     </row>
     <row r="3707" spans="1:2">
       <c r="A3707" s="5" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="B3707" s="7" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
       <c r="A3708" s="5" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="B3708" s="7" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
       <c r="A3709" s="5" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="B3709" s="6" t="s">
-        <v>6845</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
       <c r="A3710" s="25" t="s">
+        <v>7150</v>
+      </c>
+      <c r="B3710" t="s">
         <v>7151</v>
-      </c>
-      <c r="B3710" t="s">
-        <v>7152</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
       <c r="A3711" s="25" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="B3711" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -51845,10 +51842,10 @@
     </row>
     <row r="3713" spans="1:2">
       <c r="A3713" s="5" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="B3713" s="11" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="3714" spans="1:2" ht="28.8">
@@ -51861,10 +51858,10 @@
     </row>
     <row r="3715" spans="1:2">
       <c r="A3715" s="5" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="B3715" s="11" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -51872,7 +51869,7 @@
         <v>572</v>
       </c>
       <c r="B3716" s="6" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -51880,7 +51877,7 @@
         <v>573</v>
       </c>
       <c r="B3717" s="6" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -51888,7 +51885,7 @@
         <v>1102</v>
       </c>
       <c r="B3718" s="6" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -51896,7 +51893,7 @@
         <v>574</v>
       </c>
       <c r="B3719" s="6" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -51904,7 +51901,7 @@
         <v>2859</v>
       </c>
       <c r="B3720" s="11" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -51912,39 +51909,39 @@
         <v>2001</v>
       </c>
       <c r="B3721" s="11" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
       <c r="A3722" s="5" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="B3722" s="7" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
       <c r="A3723" s="5" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="B3723" s="7" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="3724" spans="1:2">
       <c r="A3724" s="5" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="B3724" s="7" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="3725" spans="1:2">
       <c r="A3725" s="5" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="B3725" s="7" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -51965,26 +51962,26 @@
     </row>
     <row r="3728" spans="1:2">
       <c r="A3728" s="5" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="B3728" s="7" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
       <c r="A3729" s="5" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="B3729" s="6" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
       <c r="A3730" s="5" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="B3730" s="6" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -52029,26 +52026,26 @@
     </row>
     <row r="3736" spans="1:2">
       <c r="A3736" s="5" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="B3736" s="6" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
       <c r="A3737" s="5" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="B3737" s="6" t="s">
-        <v>6858</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="3738" spans="1:2">
       <c r="A3738" s="5" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
       <c r="B3738" s="6" t="s">
-        <v>6877</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -52061,10 +52058,10 @@
     </row>
     <row r="3740" spans="1:2">
       <c r="A3740" s="5" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="B3740" s="11" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -52085,18 +52082,18 @@
     </row>
     <row r="3743" spans="1:2">
       <c r="A3743" s="5" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="B3743" s="6" t="s">
-        <v>6878</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
       <c r="A3744" s="5" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="B3744" s="6" t="s">
-        <v>6827</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -52109,7 +52106,7 @@
     </row>
     <row r="3746" spans="1:2">
       <c r="A3746" s="5" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="B3746" s="11" t="s">
         <v>2861</v>
@@ -52117,10 +52114,10 @@
     </row>
     <row r="3747" spans="1:2">
       <c r="A3747" s="5" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="B3747" s="6" t="s">
-        <v>6879</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -52128,7 +52125,7 @@
         <v>1104</v>
       </c>
       <c r="B3748" s="6" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -52136,15 +52133,15 @@
         <v>578</v>
       </c>
       <c r="B3749" s="6" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
       <c r="A3750" s="5" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
       <c r="B3750" s="11" t="s">
-        <v>6782</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -52157,10 +52154,10 @@
     </row>
     <row r="3752" spans="1:2">
       <c r="A3752" s="5" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="B3752" s="6" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -52168,7 +52165,7 @@
         <v>3780</v>
       </c>
       <c r="B3753" s="6" t="s">
-        <v>6907</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -52176,7 +52173,7 @@
         <v>4262</v>
       </c>
       <c r="B3754" s="6" t="s">
-        <v>6907</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -52184,7 +52181,7 @@
         <v>3779</v>
       </c>
       <c r="B3755" s="11" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -52192,7 +52189,7 @@
         <v>4264</v>
       </c>
       <c r="B3756" s="6" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -52200,7 +52197,7 @@
         <v>3781</v>
       </c>
       <c r="B3757" s="6" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -52208,7 +52205,7 @@
         <v>4260</v>
       </c>
       <c r="B3758" s="6" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -52216,7 +52213,7 @@
         <v>3782</v>
       </c>
       <c r="B3759" s="11" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -52224,7 +52221,7 @@
         <v>4269</v>
       </c>
       <c r="B3760" s="6" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -52245,10 +52242,10 @@
     </row>
     <row r="3763" spans="1:2">
       <c r="A3763" s="5" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="B3763" s="6" t="s">
-        <v>6870</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -52261,10 +52258,10 @@
     </row>
     <row r="3765" spans="1:2">
       <c r="A3765" s="5" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="B3765" s="6" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -52277,10 +52274,10 @@
     </row>
     <row r="3767" spans="1:2">
       <c r="A3767" s="5" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="B3767" s="6" t="s">
-        <v>6841</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -52296,7 +52293,7 @@
         <v>579</v>
       </c>
       <c r="B3769" s="6" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -52304,7 +52301,7 @@
         <v>1105</v>
       </c>
       <c r="B3770" s="6" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -52317,10 +52314,10 @@
     </row>
     <row r="3772" spans="1:2">
       <c r="A3772" s="5" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
       <c r="B3772" s="6" t="s">
-        <v>6882</v>
+        <v>6881</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -52328,7 +52325,7 @@
         <v>2855</v>
       </c>
       <c r="B3773" s="11" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -52336,7 +52333,7 @@
         <v>2440</v>
       </c>
       <c r="B3774" s="11" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -52365,26 +52362,26 @@
     </row>
     <row r="3778" spans="1:2">
       <c r="A3778" s="5" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="B3778" s="6" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
       <c r="A3779" s="5" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="B3779" s="11" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
       <c r="A3780" s="5" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
       <c r="B3780" s="6" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -52392,7 +52389,7 @@
         <v>580</v>
       </c>
       <c r="B3781" s="6" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -52400,31 +52397,31 @@
         <v>1106</v>
       </c>
       <c r="B3782" s="6" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
       <c r="A3783" s="5" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="B3783" s="6" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
       <c r="A3784" s="5" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
       <c r="B3784" s="6" t="s">
-        <v>6885</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
       <c r="A3785" s="5" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="B3785" s="6" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="3786" spans="1:2" ht="28.8">
@@ -52445,26 +52442,26 @@
     </row>
     <row r="3788" spans="1:2">
       <c r="A3788" s="5" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="B3788" s="11" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="3789" spans="1:2">
       <c r="A3789" s="5" t="s">
+        <v>6926</v>
+      </c>
+      <c r="B3789" s="6" t="s">
         <v>6927</v>
-      </c>
-      <c r="B3789" s="6" t="s">
-        <v>6928</v>
       </c>
     </row>
     <row r="3790" spans="1:2">
       <c r="A3790" s="5" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
       <c r="B3790" s="6" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -52477,10 +52474,10 @@
     </row>
     <row r="3792" spans="1:2">
       <c r="A3792" s="5" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="B3792" s="11" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -52488,7 +52485,7 @@
         <v>2856</v>
       </c>
       <c r="B3793" s="11" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="3794" spans="1:2">
@@ -52496,36 +52493,36 @@
         <v>2443</v>
       </c>
       <c r="B3794" s="11" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="3795" spans="1:2">
       <c r="A3795" s="5" t="s">
+        <v>6918</v>
+      </c>
+      <c r="B3795" s="9" t="s">
         <v>6919</v>
-      </c>
-      <c r="B3795" s="9" t="s">
-        <v>6920</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
       <c r="A3796" s="5" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="B3796" s="11" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
       <c r="A3797" s="5" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="B3797" s="11" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
       <c r="A3798" s="5" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="B3798" s="11" t="s">
         <v>604</v>
@@ -52549,18 +52546,18 @@
     </row>
     <row r="3801" spans="1:2" ht="28.8">
       <c r="A3801" s="5" t="s">
+        <v>6920</v>
+      </c>
+      <c r="B3801" s="9" t="s">
         <v>6921</v>
-      </c>
-      <c r="B3801" s="9" t="s">
-        <v>6922</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
       <c r="A3802" s="5" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="B3802" s="11" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -52589,18 +52586,18 @@
     </row>
     <row r="3806" spans="1:2">
       <c r="A3806" s="5" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="B3806" s="6" t="s">
-        <v>6875</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
       <c r="A3807" s="5" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="B3807" s="9" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -52637,18 +52634,18 @@
     </row>
     <row r="3812" spans="1:2">
       <c r="A3812" s="5" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="B3812" s="11" t="s">
-        <v>6780</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
       <c r="A3813" s="5" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
       <c r="B3813" s="6" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -52656,7 +52653,7 @@
         <v>569</v>
       </c>
       <c r="B3814" s="6" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -52664,15 +52661,15 @@
         <v>1099</v>
       </c>
       <c r="B3815" s="6" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
       <c r="A3816" s="5" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
       <c r="B3816" s="11" t="s">
-        <v>6789</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -52757,10 +52754,10 @@
     </row>
     <row r="3827" spans="1:2">
       <c r="A3827" s="5" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="B3827" s="6" t="s">
-        <v>6886</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -52789,18 +52786,18 @@
     </row>
     <row r="3831" spans="1:2">
       <c r="A3831" s="5" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="B3831" s="6" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
       <c r="A3832" s="5" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="B3832" s="6" t="s">
-        <v>6863</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -52837,18 +52834,18 @@
     </row>
     <row r="3837" spans="1:2">
       <c r="A3837" s="5" t="s">
+        <v>6924</v>
+      </c>
+      <c r="B3837" s="9" t="s">
         <v>6925</v>
-      </c>
-      <c r="B3837" s="9" t="s">
-        <v>6926</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
       <c r="A3838" s="5" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="B3838" s="11" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -52856,7 +52853,7 @@
         <v>575</v>
       </c>
       <c r="B3839" s="6" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="3840" spans="1:2">
@@ -52864,7 +52861,7 @@
         <v>576</v>
       </c>
       <c r="B3840" s="6" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="3841" spans="1:2">
@@ -52872,7 +52869,7 @@
         <v>1103</v>
       </c>
       <c r="B3841" s="6" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -52880,7 +52877,7 @@
         <v>577</v>
       </c>
       <c r="B3842" s="6" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -52904,7 +52901,7 @@
         <v>581</v>
       </c>
       <c r="B3845" s="6" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="3846" spans="1:2">
@@ -52912,23 +52909,23 @@
         <v>1107</v>
       </c>
       <c r="B3846" s="6" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="3847" spans="1:2">
       <c r="A3847" s="5" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
       <c r="B3847" s="11" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="3848" spans="1:2">
       <c r="A3848" s="5" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="B3848" s="11" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -52944,7 +52941,7 @@
         <v>3766</v>
       </c>
       <c r="B3850" s="11" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -52952,7 +52949,7 @@
         <v>4267</v>
       </c>
       <c r="B3851" s="6" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -53021,10 +53018,10 @@
     </row>
     <row r="3860" spans="1:2">
       <c r="A3860" s="7" t="s">
+        <v>6939</v>
+      </c>
+      <c r="B3860" s="11" t="s">
         <v>6940</v>
-      </c>
-      <c r="B3860" s="11" t="s">
-        <v>6941</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -53037,18 +53034,18 @@
     </row>
     <row r="3862" spans="1:2">
       <c r="A3862" s="5" t="s">
+        <v>6941</v>
+      </c>
+      <c r="B3862" s="9" t="s">
         <v>6942</v>
-      </c>
-      <c r="B3862" s="9" t="s">
-        <v>6943</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
       <c r="A3863" s="5" t="s">
-        <v>7117</v>
+        <v>7116</v>
       </c>
       <c r="B3863" s="9" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -53069,18 +53066,18 @@
     </row>
     <row r="3866" spans="1:2">
       <c r="A3866" s="5" t="s">
+        <v>6943</v>
+      </c>
+      <c r="B3866" s="9" t="s">
         <v>6944</v>
-      </c>
-      <c r="B3866" s="9" t="s">
-        <v>6945</v>
       </c>
     </row>
     <row r="3867" spans="1:2">
       <c r="A3867" s="5" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
       <c r="B3867" s="9" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -53093,10 +53090,10 @@
     </row>
     <row r="3869" spans="1:2">
       <c r="A3869" s="5" t="s">
+        <v>6945</v>
+      </c>
+      <c r="B3869" s="9" t="s">
         <v>6946</v>
-      </c>
-      <c r="B3869" s="9" t="s">
-        <v>6947</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -53125,10 +53122,10 @@
     </row>
     <row r="3873" spans="1:2">
       <c r="A3873" s="5" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="B3873" s="5" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="3874" spans="1:2">
@@ -53157,10 +53154,10 @@
     </row>
     <row r="3877" spans="1:2">
       <c r="A3877" s="5" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="B3877" s="11" t="s">
-        <v>6826</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -53253,10 +53250,10 @@
     </row>
     <row r="3889" spans="1:2">
       <c r="A3889" s="5" t="s">
+        <v>6950</v>
+      </c>
+      <c r="B3889" s="11" t="s">
         <v>6951</v>
-      </c>
-      <c r="B3889" s="11" t="s">
-        <v>6952</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -53301,10 +53298,10 @@
     </row>
     <row r="3895" spans="1:2">
       <c r="A3895" s="5" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
       <c r="B3895" s="6" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -53368,7 +53365,7 @@
         <v>4192</v>
       </c>
       <c r="B3903" s="7" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -53376,7 +53373,7 @@
         <v>6519</v>
       </c>
       <c r="B3904" s="9" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -53384,7 +53381,7 @@
         <v>6544</v>
       </c>
       <c r="B3905" s="9" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -53405,18 +53402,18 @@
     </row>
     <row r="3908" spans="1:2">
       <c r="A3908" s="5" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="B3908" s="7" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="3909" spans="1:2">
       <c r="A3909" s="5" t="s">
+        <v>6958</v>
+      </c>
+      <c r="B3909" s="7" t="s">
         <v>6959</v>
-      </c>
-      <c r="B3909" s="7" t="s">
-        <v>6960</v>
       </c>
     </row>
     <row r="3910" spans="1:2">
@@ -53453,10 +53450,10 @@
     </row>
     <row r="3914" spans="1:2">
       <c r="A3914" s="5" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="B3914" s="5" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="3915" spans="1:2">
@@ -53485,10 +53482,10 @@
     </row>
     <row r="3918" spans="1:2">
       <c r="A3918" s="5" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="B3918" s="11" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -53552,7 +53549,7 @@
         <v>2872</v>
       </c>
       <c r="B3926" s="11" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -53560,7 +53557,7 @@
         <v>1825</v>
       </c>
       <c r="B3927" s="11" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -53672,7 +53669,7 @@
         <v>2205</v>
       </c>
       <c r="B3941" s="5" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="3942" spans="1:2">
@@ -53680,7 +53677,7 @@
         <v>2360</v>
       </c>
       <c r="B3942" s="5" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -53749,10 +53746,10 @@
     </row>
     <row r="3951" spans="1:2">
       <c r="A3951" s="5" t="s">
+        <v>6967</v>
+      </c>
+      <c r="B3951" s="5" t="s">
         <v>6968</v>
-      </c>
-      <c r="B3951" s="5" t="s">
-        <v>6969</v>
       </c>
     </row>
     <row r="3952" spans="1:2" ht="28.8">
@@ -53797,10 +53794,10 @@
     </row>
     <row r="3957" spans="1:2">
       <c r="A3957" s="5" t="s">
+        <v>6969</v>
+      </c>
+      <c r="B3957" s="5" t="s">
         <v>6970</v>
-      </c>
-      <c r="B3957" s="5" t="s">
-        <v>6971</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -53808,15 +53805,15 @@
         <v>2105</v>
       </c>
       <c r="B3958" s="7" t="s">
-        <v>6950</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
       <c r="A3959" s="25" t="s">
+        <v>7154</v>
+      </c>
+      <c r="B3959" s="7" t="s">
         <v>7155</v>
-      </c>
-      <c r="B3959" s="7" t="s">
-        <v>7156</v>
       </c>
     </row>
     <row r="3960" spans="1:2">
@@ -53853,10 +53850,10 @@
     </row>
     <row r="3964" spans="1:2">
       <c r="A3964" s="5" t="s">
+        <v>6971</v>
+      </c>
+      <c r="B3964" s="5" t="s">
         <v>6972</v>
-      </c>
-      <c r="B3964" s="5" t="s">
-        <v>6973</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -53888,7 +53885,7 @@
         <v>1160</v>
       </c>
       <c r="B3968" s="9" t="s">
-        <v>6974</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="3969" spans="1:2" ht="28.8">
@@ -53896,7 +53893,7 @@
         <v>645</v>
       </c>
       <c r="B3969" s="5" t="s">
-        <v>6974</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -53989,10 +53986,10 @@
     </row>
     <row r="3981" spans="1:2">
       <c r="A3981" s="25" t="s">
+        <v>7156</v>
+      </c>
+      <c r="B3981" s="25" t="s">
         <v>7157</v>
-      </c>
-      <c r="B3981" s="25" t="s">
-        <v>7158</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -54029,10 +54026,10 @@
     </row>
     <row r="3986" spans="1:2">
       <c r="A3986" s="25" t="s">
+        <v>7158</v>
+      </c>
+      <c r="B3986" s="25" t="s">
         <v>7159</v>
-      </c>
-      <c r="B3986" s="25" t="s">
-        <v>7160</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -54117,7 +54114,7 @@
     </row>
     <row r="3997" spans="1:2">
       <c r="A3997" s="5" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="B3997" s="7" t="s">
         <v>4046</v>
@@ -54133,10 +54130,10 @@
     </row>
     <row r="3999" spans="1:2">
       <c r="A3999" s="5" t="s">
+        <v>6975</v>
+      </c>
+      <c r="B3999" s="5" t="s">
         <v>6976</v>
-      </c>
-      <c r="B3999" s="5" t="s">
-        <v>6977</v>
       </c>
     </row>
     <row r="4000" spans="1:2">
@@ -54221,10 +54218,10 @@
     </row>
     <row r="4010" spans="1:2">
       <c r="A4010" s="5" t="s">
+        <v>6977</v>
+      </c>
+      <c r="B4010" s="5" t="s">
         <v>6978</v>
-      </c>
-      <c r="B4010" s="5" t="s">
-        <v>6979</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -54317,10 +54314,10 @@
     </row>
     <row r="4022" spans="1:2">
       <c r="A4022" s="9" t="s">
+        <v>6979</v>
+      </c>
+      <c r="B4022" s="5" t="s">
         <v>6980</v>
-      </c>
-      <c r="B4022" s="5" t="s">
-        <v>6981</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -54328,7 +54325,7 @@
         <v>2853</v>
       </c>
       <c r="B4023" s="7" t="s">
-        <v>6983</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -54336,15 +54333,15 @@
         <v>2083</v>
       </c>
       <c r="B4024" s="11" t="s">
-        <v>6983</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
       <c r="A4025" s="5" t="s">
+        <v>6981</v>
+      </c>
+      <c r="B4025" s="5" t="s">
         <v>6982</v>
-      </c>
-      <c r="B4025" s="5" t="s">
-        <v>6983</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -54365,10 +54362,10 @@
     </row>
     <row r="4028" spans="1:2">
       <c r="A4028" s="5" t="s">
+        <v>6983</v>
+      </c>
+      <c r="B4028" s="5" t="s">
         <v>6984</v>
-      </c>
-      <c r="B4028" s="5" t="s">
-        <v>6985</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -54653,10 +54650,10 @@
     </row>
     <row r="4064" spans="1:2">
       <c r="A4064" s="5" t="s">
+        <v>6985</v>
+      </c>
+      <c r="B4064" s="5" t="s">
         <v>6986</v>
-      </c>
-      <c r="B4064" s="5" t="s">
-        <v>6987</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -54664,7 +54661,7 @@
         <v>676</v>
       </c>
       <c r="B4065" s="24" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -54672,7 +54669,7 @@
         <v>1178</v>
       </c>
       <c r="B4066" s="5" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -54693,7 +54690,7 @@
     </row>
     <row r="4069" spans="1:2">
       <c r="A4069" s="25" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="B4069" s="7" t="s">
         <v>1722</v>
@@ -54821,10 +54818,10 @@
     </row>
     <row r="4085" spans="1:2">
       <c r="A4085" s="9" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="B4085" s="6" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -54837,10 +54834,10 @@
     </row>
     <row r="4087" spans="1:2">
       <c r="A4087" s="9" t="s">
-        <v>6989</v>
+        <v>6988</v>
       </c>
       <c r="B4087" s="9" t="s">
-        <v>6988</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -54853,10 +54850,10 @@
     </row>
     <row r="4089" spans="1:2">
       <c r="A4089" s="9" t="s">
+        <v>6989</v>
+      </c>
+      <c r="B4089" s="5" t="s">
         <v>6990</v>
-      </c>
-      <c r="B4089" s="5" t="s">
-        <v>6991</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -54933,31 +54930,31 @@
     </row>
     <row r="4099" spans="1:2">
       <c r="A4099" s="9" t="s">
+        <v>6991</v>
+      </c>
+      <c r="B4099" s="5" t="s">
         <v>6992</v>
-      </c>
-      <c r="B4099" s="5" t="s">
-        <v>6993</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
       <c r="A4100" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="B4100" s="7" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
       <c r="A4101" s="16" t="s">
+        <v>7164</v>
+      </c>
+      <c r="B4101" s="6" t="s">
         <v>7165</v>
-      </c>
-      <c r="B4101" s="6" t="s">
-        <v>7166</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
       <c r="A4102" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="B4102" s="24" t="s">
         <v>479</v>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03565627-DA13-440F-AAB2-4F107D33A1FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A9F850-DE0D-4878-8FBB-706318DE0B80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7166">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -21090,9 +21090,6 @@
   </si>
   <si>
     <t>coopemolus-chomes r.l</t>
-  </si>
-  <si>
-    <t>costa rican fisheries federation</t>
   </si>
   <si>
     <t>center for responsible travel</t>
@@ -22085,8 +22082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3375" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3392" sqref="B3392"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B813" sqref="B813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22993,7 +22990,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="16" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>702</v>
@@ -23460,7 +23457,7 @@
         <v>35</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -26700,7 +26697,7 @@
         <v>2098</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -26708,7 +26705,7 @@
         <v>2070</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -27153,7 +27150,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="9" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="B633" s="6" t="s">
         <v>4869</v>
@@ -28369,18 +28366,18 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="9" t="s">
-        <v>7088</v>
+        <v>7087</v>
       </c>
       <c r="B785" s="9" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="9" t="s">
-        <v>7091</v>
+        <v>7090</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -28596,7 +28593,7 @@
         <v>5291</v>
       </c>
       <c r="B813" s="6" t="s">
-        <v>7018</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -28604,7 +28601,7 @@
         <v>4452</v>
       </c>
       <c r="B814" s="6" t="s">
-        <v>7018</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -28884,7 +28881,7 @@
         <v>28</v>
       </c>
       <c r="B849" s="13" t="s">
-        <v>7066</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -28892,7 +28889,7 @@
         <v>2243</v>
       </c>
       <c r="B850" s="13" t="s">
-        <v>7066</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -29105,10 +29102,10 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="9" t="s">
+        <v>7019</v>
+      </c>
+      <c r="B877" s="9" t="s">
         <v>7020</v>
-      </c>
-      <c r="B877" s="9" t="s">
-        <v>7021</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -29428,7 +29425,7 @@
         <v>4522</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -29569,10 +29566,10 @@
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="9" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B935" s="9" t="s">
         <v>7022</v>
-      </c>
-      <c r="B935" s="9" t="s">
-        <v>7023</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -29697,7 +29694,7 @@
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="B951" s="9" t="s">
         <v>5145</v>
@@ -30249,18 +30246,18 @@
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="9" t="s">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B1020" s="6" t="s">
-        <v>7026</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="9" t="s">
+        <v>7024</v>
+      </c>
+      <c r="B1021" s="6" t="s">
         <v>7025</v>
-      </c>
-      <c r="B1021" s="6" t="s">
-        <v>7026</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -30905,7 +30902,7 @@
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="11" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
       <c r="B1102" s="6" t="s">
         <v>5514</v>
@@ -31137,7 +31134,7 @@
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" s="9" t="s">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B1131" s="6" t="s">
         <v>775</v>
@@ -31153,10 +31150,10 @@
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="9" t="s">
+        <v>7027</v>
+      </c>
+      <c r="B1133" s="9" t="s">
         <v>7028</v>
-      </c>
-      <c r="B1133" s="9" t="s">
-        <v>7029</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -31844,7 +31841,7 @@
         <v>6486</v>
       </c>
       <c r="B1219" s="11" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -31852,7 +31849,7 @@
         <v>6485</v>
       </c>
       <c r="B1220" s="11" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -32108,7 +32105,7 @@
         <v>2619</v>
       </c>
       <c r="B1252" s="6" t="s">
-        <v>7030</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -32116,7 +32113,7 @@
         <v>2050</v>
       </c>
       <c r="B1253" s="6" t="s">
-        <v>7030</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -32324,15 +32321,15 @@
         <v>127</v>
       </c>
       <c r="B1279" s="9" t="s">
-        <v>7032</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="9" t="s">
+        <v>7030</v>
+      </c>
+      <c r="B1280" s="9" t="s">
         <v>7031</v>
-      </c>
-      <c r="B1280" s="9" t="s">
-        <v>7032</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -32460,7 +32457,7 @@
         <v>5717</v>
       </c>
       <c r="B1296" s="9" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -32468,7 +32465,7 @@
         <v>5688</v>
       </c>
       <c r="B1297" s="9" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -32476,7 +32473,7 @@
         <v>5689</v>
       </c>
       <c r="B1298" s="9" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -32505,10 +32502,10 @@
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="9" t="s">
+        <v>7033</v>
+      </c>
+      <c r="B1302" s="9" t="s">
         <v>7034</v>
-      </c>
-      <c r="B1302" s="9" t="s">
-        <v>7035</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -33065,10 +33062,10 @@
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="9" t="s">
+        <v>7035</v>
+      </c>
+      <c r="B1372" s="9" t="s">
         <v>7036</v>
-      </c>
-      <c r="B1372" s="9" t="s">
-        <v>7037</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -33092,7 +33089,7 @@
         <v>789</v>
       </c>
       <c r="B1375" s="9" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -33100,7 +33097,7 @@
         <v>135</v>
       </c>
       <c r="B1376" s="9" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -33249,7 +33246,7 @@
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="9" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="B1395" s="9" t="s">
         <v>6533</v>
@@ -33345,10 +33342,10 @@
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="9" t="s">
+        <v>7040</v>
+      </c>
+      <c r="B1407" s="6" t="s">
         <v>7041</v>
-      </c>
-      <c r="B1407" s="6" t="s">
-        <v>7042</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -33425,10 +33422,10 @@
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="9" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="B1417" s="9" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -33489,10 +33486,10 @@
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="9" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="B1425" s="9" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -33796,15 +33793,15 @@
         <v>5577</v>
       </c>
       <c r="B1463" s="11" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="9" t="s">
+        <v>7082</v>
+      </c>
+      <c r="B1464" s="11" t="s">
         <v>7083</v>
-      </c>
-      <c r="B1464" s="11" t="s">
-        <v>7084</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -33812,7 +33809,7 @@
         <v>5580</v>
       </c>
       <c r="B1465" s="11" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -33916,7 +33913,7 @@
         <v>6011</v>
       </c>
       <c r="B1478" s="11" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -33993,10 +33990,10 @@
     </row>
     <row r="1488" spans="1:2">
       <c r="A1488" s="9" t="s">
-        <v>7044</v>
+        <v>7043</v>
       </c>
       <c r="B1488" s="9" t="s">
-        <v>7043</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -34020,7 +34017,7 @@
         <v>1836</v>
       </c>
       <c r="B1491" s="9" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -34028,7 +34025,7 @@
         <v>1806</v>
       </c>
       <c r="B1492" s="9" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -34372,7 +34369,7 @@
         <v>1249</v>
       </c>
       <c r="B1535" s="6" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -34380,7 +34377,7 @@
         <v>2639</v>
       </c>
       <c r="B1536" s="6" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -34460,7 +34457,7 @@
         <v>5992</v>
       </c>
       <c r="B1546" s="11" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -34468,7 +34465,7 @@
         <v>6009</v>
       </c>
       <c r="B1547" s="11" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -34625,18 +34622,18 @@
     </row>
     <row r="1567" spans="1:2">
       <c r="A1567" s="9" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
       <c r="B1567" s="9" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
       <c r="A1568" s="9" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
       <c r="B1568" s="6" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -34945,10 +34942,10 @@
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" t="s">
+        <v>7135</v>
+      </c>
+      <c r="B1607" t="s">
         <v>7136</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>7137</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -35161,10 +35158,10 @@
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" s="9" t="s">
+        <v>7047</v>
+      </c>
+      <c r="B1634" s="9" t="s">
         <v>7048</v>
-      </c>
-      <c r="B1634" s="9" t="s">
-        <v>7049</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -35236,7 +35233,7 @@
         <v>169</v>
       </c>
       <c r="B1643" s="6" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -35412,7 +35409,7 @@
         <v>3324</v>
       </c>
       <c r="B1665" s="6" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -36441,7 +36438,7 @@
     </row>
     <row r="1794" spans="1:2">
       <c r="A1794" s="6" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="B1794" s="6" t="s">
         <v>184</v>
@@ -36625,10 +36622,10 @@
     </row>
     <row r="1817" spans="1:2">
       <c r="A1817" s="9" t="s">
+        <v>7123</v>
+      </c>
+      <c r="B1817" s="9" t="s">
         <v>7124</v>
-      </c>
-      <c r="B1817" s="9" t="s">
-        <v>7125</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -37513,7 +37510,7 @@
     </row>
     <row r="1928" spans="1:2">
       <c r="A1928" s="9" t="s">
-        <v>7050</v>
+        <v>7049</v>
       </c>
       <c r="B1928" s="9" t="s">
         <v>2883</v>
@@ -37777,10 +37774,10 @@
     </row>
     <row r="1961" spans="1:2">
       <c r="A1961" s="9" t="s">
-        <v>7052</v>
+        <v>7051</v>
       </c>
       <c r="B1961" s="9" t="s">
-        <v>7051</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -37905,10 +37902,10 @@
     </row>
     <row r="1977" spans="1:2">
       <c r="A1977" s="9" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
       <c r="B1977" s="9" t="s">
-        <v>7053</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -38017,10 +38014,10 @@
     </row>
     <row r="1991" spans="1:2">
       <c r="A1991" s="9" t="s">
-        <v>7056</v>
+        <v>7055</v>
       </c>
       <c r="B1991" s="9" t="s">
-        <v>7055</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -38121,10 +38118,10 @@
     </row>
     <row r="2004" spans="1:2">
       <c r="A2004" s="9" t="s">
-        <v>7058</v>
+        <v>7057</v>
       </c>
       <c r="B2004" s="9" t="s">
-        <v>7057</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -38668,7 +38665,7 @@
         <v>5301</v>
       </c>
       <c r="B2072" s="11" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -38676,7 +38673,7 @@
         <v>5313</v>
       </c>
       <c r="B2073" s="11" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -38684,7 +38681,7 @@
         <v>5306</v>
       </c>
       <c r="B2074" s="11" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -39361,10 +39358,10 @@
     </row>
     <row r="2159" spans="1:2">
       <c r="A2159" s="9" t="s">
+        <v>7059</v>
+      </c>
+      <c r="B2159" s="9" t="s">
         <v>7060</v>
-      </c>
-      <c r="B2159" s="9" t="s">
-        <v>7061</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -39513,10 +39510,10 @@
     </row>
     <row r="2178" spans="1:2">
       <c r="A2178" s="9" t="s">
-        <v>7063</v>
+        <v>7062</v>
       </c>
       <c r="B2178" s="5" t="s">
-        <v>7062</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="2179" spans="1:2">
@@ -40073,7 +40070,7 @@
     </row>
     <row r="2248" spans="1:2">
       <c r="A2248" s="9" t="s">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="B2248" s="9" t="s">
         <v>866</v>
@@ -40505,10 +40502,10 @@
     </row>
     <row r="2302" spans="1:2">
       <c r="A2302" t="s">
-        <v>7131</v>
+        <v>7130</v>
       </c>
       <c r="B2302" s="16" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="2303" spans="1:2">
@@ -40585,7 +40582,7 @@
     </row>
     <row r="2312" spans="1:3">
       <c r="A2312" s="9" t="s">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="B2312" s="6" t="s">
         <v>4861</v>
@@ -41004,7 +41001,7 @@
         <v>4764</v>
       </c>
       <c r="B2359" s="9" t="s">
-        <v>7069</v>
+        <v>7068</v>
       </c>
       <c r="C2359" s="1"/>
     </row>
@@ -41013,7 +41010,7 @@
         <v>4801</v>
       </c>
       <c r="B2360" s="9" t="s">
-        <v>7069</v>
+        <v>7068</v>
       </c>
       <c r="C2360" s="1"/>
     </row>
@@ -41058,7 +41055,7 @@
         <v>5153</v>
       </c>
       <c r="B2365" s="6" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -41066,7 +41063,7 @@
         <v>5165</v>
       </c>
       <c r="B2366" s="9" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -41215,18 +41212,18 @@
     </row>
     <row r="2385" spans="1:2">
       <c r="A2385" s="10" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="B2385" s="7" t="s">
-        <v>7106</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="2386" spans="1:2">
       <c r="A2386" s="10" t="s">
+        <v>7103</v>
+      </c>
+      <c r="B2386" s="7" t="s">
         <v>7104</v>
-      </c>
-      <c r="B2386" s="7" t="s">
-        <v>7105</v>
       </c>
     </row>
     <row r="2387" spans="1:2">
@@ -41689,7 +41686,7 @@
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" s="5" t="s">
-        <v>7072</v>
+        <v>7071</v>
       </c>
       <c r="B2444" s="21" t="s">
         <v>3306</v>
@@ -41786,7 +41783,7 @@
     </row>
     <row r="2456" spans="1:2">
       <c r="A2456" s="5" t="s">
-        <v>7073</v>
+        <v>7072</v>
       </c>
       <c r="B2456" s="9" t="s">
         <v>893</v>
@@ -42290,7 +42287,7 @@
     </row>
     <row r="2519" spans="1:2">
       <c r="A2519" s="25" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="B2519" s="11" t="s">
         <v>905</v>
@@ -42474,18 +42471,18 @@
     </row>
     <row r="2542" spans="1:2">
       <c r="A2542" s="5" t="s">
+        <v>7111</v>
+      </c>
+      <c r="B2542" s="5" t="s">
         <v>7112</v>
-      </c>
-      <c r="B2542" s="5" t="s">
-        <v>7113</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
       <c r="A2543" s="5" t="s">
-        <v>7111</v>
+        <v>7110</v>
       </c>
       <c r="B2543" s="5" t="s">
-        <v>7113</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="2544" spans="1:2">
@@ -42762,7 +42759,7 @@
     </row>
     <row r="2578" spans="1:2">
       <c r="A2578" s="5" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="B2578" s="7" t="s">
         <v>6189</v>
@@ -43010,10 +43007,10 @@
     </row>
     <row r="2609" spans="1:2">
       <c r="A2609" s="5" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="B2609" s="7" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -43021,7 +43018,7 @@
         <v>3253</v>
       </c>
       <c r="B2610" s="7" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -43029,7 +43026,7 @@
         <v>392</v>
       </c>
       <c r="B2611" s="7" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -43037,7 +43034,7 @@
         <v>3397</v>
       </c>
       <c r="B2612" s="7" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -43045,7 +43042,7 @@
         <v>999</v>
       </c>
       <c r="B2613" s="7" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -43189,7 +43186,7 @@
         <v>393</v>
       </c>
       <c r="B2631" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -43197,7 +43194,7 @@
         <v>394</v>
       </c>
       <c r="B2632" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -43205,7 +43202,7 @@
         <v>395</v>
       </c>
       <c r="B2633" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -43213,7 +43210,7 @@
         <v>396</v>
       </c>
       <c r="B2634" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -43221,7 +43218,7 @@
         <v>1000</v>
       </c>
       <c r="B2635" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -43229,7 +43226,7 @@
         <v>3390</v>
       </c>
       <c r="B2636" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2637" spans="1:2">
@@ -43237,7 +43234,7 @@
         <v>397</v>
       </c>
       <c r="B2637" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -43245,7 +43242,7 @@
         <v>398</v>
       </c>
       <c r="B2638" s="7" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -43661,7 +43658,7 @@
         <v>3027</v>
       </c>
       <c r="B2690" s="6" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="2691" spans="1:2">
@@ -43669,7 +43666,7 @@
         <v>6376</v>
       </c>
       <c r="B2691" s="11" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -43677,7 +43674,7 @@
         <v>6377</v>
       </c>
       <c r="B2692" s="6" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -43746,10 +43743,10 @@
     </row>
     <row r="2701" spans="1:2">
       <c r="A2701" s="5" t="s">
+        <v>7063</v>
+      </c>
+      <c r="B2701" s="6" t="s">
         <v>7064</v>
-      </c>
-      <c r="B2701" s="6" t="s">
-        <v>7065</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -43789,7 +43786,7 @@
         <v>4936</v>
       </c>
       <c r="B2706" s="9" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -43797,7 +43794,7 @@
         <v>940</v>
       </c>
       <c r="B2707" s="9" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -43805,7 +43802,7 @@
         <v>322</v>
       </c>
       <c r="B2708" s="9" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -43826,7 +43823,7 @@
     </row>
     <row r="2711" spans="1:2">
       <c r="A2711" s="5" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
       <c r="B2711" s="11" t="s">
         <v>4947</v>
@@ -43885,7 +43882,7 @@
         <v>325</v>
       </c>
       <c r="B2718" s="11" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -43917,7 +43914,7 @@
         <v>6451</v>
       </c>
       <c r="B2722" s="9" t="s">
-        <v>7078</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -43925,7 +43922,7 @@
         <v>6430</v>
       </c>
       <c r="B2723" s="9" t="s">
-        <v>7078</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -44050,10 +44047,10 @@
     </row>
     <row r="2739" spans="1:2">
       <c r="A2739" s="5" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="B2739" s="9" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -44690,10 +44687,10 @@
     </row>
     <row r="2819" spans="1:2">
       <c r="A2819" s="5" t="s">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="B2819" s="5" t="s">
-        <v>7081</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="2820" spans="1:2">
@@ -45333,15 +45330,15 @@
         <v>355</v>
       </c>
       <c r="B2899" s="11" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
       <c r="A2900" s="25" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="B2900" s="11" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -46514,10 +46511,10 @@
     </row>
     <row r="3047" spans="1:2">
       <c r="A3047" s="25" t="s">
+        <v>7145</v>
+      </c>
+      <c r="B3047" s="11" t="s">
         <v>7146</v>
-      </c>
-      <c r="B3047" s="11" t="s">
-        <v>7147</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -46546,7 +46543,7 @@
     </row>
     <row r="3051" spans="1:2">
       <c r="A3051" s="5" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
       <c r="B3051" s="9" t="s">
         <v>4807</v>
@@ -46730,10 +46727,10 @@
     </row>
     <row r="3074" spans="1:2">
       <c r="A3074" s="5" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="B3074" s="5" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -47218,7 +47215,7 @@
     </row>
     <row r="3135" spans="1:2">
       <c r="A3135" s="5" t="s">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="B3135" s="7" t="s">
         <v>6542</v>
@@ -47557,15 +47554,15 @@
         <v>5418</v>
       </c>
       <c r="B3177" s="6" t="s">
-        <v>7096</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
       <c r="A3178" s="5" t="s">
+        <v>7094</v>
+      </c>
+      <c r="B3178" s="6" t="s">
         <v>7095</v>
-      </c>
-      <c r="B3178" s="6" t="s">
-        <v>7096</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -47573,7 +47570,7 @@
         <v>5469</v>
       </c>
       <c r="B3179" s="6" t="s">
-        <v>7096</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -47893,15 +47890,15 @@
         <v>6482</v>
       </c>
       <c r="B3219" s="6" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
       <c r="A3220" s="5" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
       <c r="B3220" s="11" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3221" spans="1:2">
@@ -47909,7 +47906,7 @@
         <v>6481</v>
       </c>
       <c r="B3221" s="11" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -49122,10 +49119,10 @@
     </row>
     <row r="3373" spans="1:2">
       <c r="A3373" s="5" t="s">
-        <v>7100</v>
+        <v>7099</v>
       </c>
       <c r="B3373" s="5" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -49186,10 +49183,10 @@
     </row>
     <row r="3381" spans="1:2">
       <c r="A3381" s="25" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="B3381" s="7" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -49197,7 +49194,7 @@
         <v>2445</v>
       </c>
       <c r="B3382" s="7" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -49802,7 +49799,7 @@
     </row>
     <row r="3458" spans="1:2">
       <c r="A3458" s="5" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="B3458" s="9" t="s">
         <v>3414</v>
@@ -49930,7 +49927,7 @@
     </row>
     <row r="3474" spans="1:2">
       <c r="A3474" s="25" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="B3474" s="6" t="s">
         <v>1059</v>
@@ -50282,7 +50279,7 @@
     </row>
     <row r="3518" spans="1:2">
       <c r="A3518" s="5" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="B3518" s="5" t="s">
         <v>1072</v>
@@ -50402,7 +50399,7 @@
     </row>
     <row r="3533" spans="1:2" ht="28.8">
       <c r="A3533" s="5" t="s">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="B3533" s="9" t="s">
         <v>1074</v>
@@ -50498,7 +50495,7 @@
     </row>
     <row r="3545" spans="1:2">
       <c r="A3545" s="5" t="s">
-        <v>7087</v>
+        <v>7086</v>
       </c>
       <c r="B3545" s="7" t="s">
         <v>523</v>
@@ -50666,7 +50663,7 @@
     </row>
     <row r="3566" spans="1:2">
       <c r="A3566" s="10" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="B3566" s="7" t="s">
         <v>523</v>
@@ -50674,7 +50671,7 @@
     </row>
     <row r="3567" spans="1:2">
       <c r="A3567" s="25" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="B3567" s="7" t="s">
         <v>523</v>
@@ -51133,7 +51130,7 @@
         <v>6617</v>
       </c>
       <c r="B3624" s="17" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -51141,7 +51138,7 @@
         <v>6618</v>
       </c>
       <c r="B3625" s="17" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -51149,7 +51146,7 @@
         <v>1071</v>
       </c>
       <c r="B3626" s="9" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -51818,18 +51815,18 @@
     </row>
     <row r="3710" spans="1:2">
       <c r="A3710" s="25" t="s">
+        <v>7149</v>
+      </c>
+      <c r="B3710" t="s">
         <v>7150</v>
-      </c>
-      <c r="B3710" t="s">
-        <v>7151</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
       <c r="A3711" s="25" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="B3711" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -51869,7 +51866,7 @@
         <v>572</v>
       </c>
       <c r="B3716" s="6" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -51877,7 +51874,7 @@
         <v>573</v>
       </c>
       <c r="B3717" s="6" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="3718" spans="1:2">
@@ -51885,7 +51882,7 @@
         <v>1102</v>
       </c>
       <c r="B3718" s="6" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -51893,7 +51890,7 @@
         <v>574</v>
       </c>
       <c r="B3719" s="6" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -53042,10 +53039,10 @@
     </row>
     <row r="3863" spans="1:2">
       <c r="A3863" s="5" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="B3863" s="9" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -53074,7 +53071,7 @@
     </row>
     <row r="3867" spans="1:2">
       <c r="A3867" s="5" t="s">
-        <v>7117</v>
+        <v>7116</v>
       </c>
       <c r="B3867" s="9" t="s">
         <v>6944</v>
@@ -53373,7 +53370,7 @@
         <v>6519</v>
       </c>
       <c r="B3904" s="9" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -53381,7 +53378,7 @@
         <v>6544</v>
       </c>
       <c r="B3905" s="9" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -53549,7 +53546,7 @@
         <v>2872</v>
       </c>
       <c r="B3926" s="11" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -53557,7 +53554,7 @@
         <v>1825</v>
       </c>
       <c r="B3927" s="11" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -53810,10 +53807,10 @@
     </row>
     <row r="3959" spans="1:2">
       <c r="A3959" s="25" t="s">
+        <v>7153</v>
+      </c>
+      <c r="B3959" s="7" t="s">
         <v>7154</v>
-      </c>
-      <c r="B3959" s="7" t="s">
-        <v>7155</v>
       </c>
     </row>
     <row r="3960" spans="1:2">
@@ -53986,10 +53983,10 @@
     </row>
     <row r="3981" spans="1:2">
       <c r="A3981" s="25" t="s">
+        <v>7155</v>
+      </c>
+      <c r="B3981" s="25" t="s">
         <v>7156</v>
-      </c>
-      <c r="B3981" s="25" t="s">
-        <v>7157</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -54026,10 +54023,10 @@
     </row>
     <row r="3986" spans="1:2">
       <c r="A3986" s="25" t="s">
+        <v>7157</v>
+      </c>
+      <c r="B3986" s="25" t="s">
         <v>7158</v>
-      </c>
-      <c r="B3986" s="25" t="s">
-        <v>7159</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -54661,7 +54658,7 @@
         <v>676</v>
       </c>
       <c r="B4065" s="24" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -54669,7 +54666,7 @@
         <v>1178</v>
       </c>
       <c r="B4066" s="5" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -54690,7 +54687,7 @@
     </row>
     <row r="4069" spans="1:2">
       <c r="A4069" s="25" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="B4069" s="7" t="s">
         <v>1722</v>
@@ -54938,23 +54935,23 @@
     </row>
     <row r="4100" spans="1:2">
       <c r="A4100" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="B4100" s="7" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
       <c r="A4101" s="16" t="s">
+        <v>7163</v>
+      </c>
+      <c r="B4101" s="6" t="s">
         <v>7164</v>
-      </c>
-      <c r="B4101" s="6" t="s">
-        <v>7165</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
       <c r="A4102" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="B4102" s="24" t="s">
         <v>479</v>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A9F850-DE0D-4878-8FBB-706318DE0B80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0EE46-AFB0-4A30-B548-4E82F4A5084E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22082,8 +22082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B813" sqref="B813"/>
+    <sheetView tabSelected="1" topLeftCell="A4077" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4100" sqref="B4100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0EE46-AFB0-4A30-B548-4E82F4A5084E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8B64C-0D7C-4F80-AD86-D34D572499F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22082,8 +22082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4077" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4100" sqref="B4100"/>
+    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B819" sqref="B819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28633,15 +28633,15 @@
         <v>5284</v>
       </c>
       <c r="B818" s="6" t="s">
-        <v>5291</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="9" t="s">
         <v>4420</v>
       </c>
-      <c r="B819" s="9" t="s">
-        <v>4452</v>
+      <c r="B819" s="6" t="s">
+        <v>5281</v>
       </c>
     </row>
     <row r="820" spans="1:2">

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8B64C-0D7C-4F80-AD86-D34D572499F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C7B956-7E38-4DB7-B96E-56A92AE1646B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7165">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -21528,9 +21528,6 @@
   </si>
   <si>
     <t xml:space="preserve">South Pacific Regional Environment Program </t>
-  </si>
-  <si>
-    <t>south pacific regional environment program</t>
   </si>
   <si>
     <t>united kindgom</t>
@@ -22082,8 +22079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B819" sqref="B819"/>
+    <sheetView tabSelected="1" topLeftCell="A4078" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4101" sqref="B4101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -54945,13 +54942,13 @@
       <c r="A4101" s="16" t="s">
         <v>7163</v>
       </c>
-      <c r="B4101" s="6" t="s">
-        <v>7164</v>
+      <c r="B4101" s="25" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
       <c r="A4102" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="B4102" s="24" t="s">
         <v>479</v>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C7B956-7E38-4DB7-B96E-56A92AE1646B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0406059E-6696-4647-B017-BD3DA0A18E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0406059E-6696-4647-B017-BD3DA0A18E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157EBAA-11DB-4C43-AE70-330CCB9A360A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8204" uniqueCount="7165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16636" uniqueCount="7165">
   <si>
     <t>the international council for the exploration of the sea (ices)</t>
   </si>
@@ -21527,7 +21527,7 @@
     <t>regional environmental center</t>
   </si>
   <si>
-    <t xml:space="preserve">South Pacific Regional Environment Program </t>
+    <t>south pacific regional environment program</t>
   </si>
   <si>
     <t>united kindgom</t>
@@ -21661,7 +21661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -21739,6 +21739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -54939,7 +54940,7 @@
       </c>
     </row>
     <row r="4101" spans="1:2">
-      <c r="A4101" s="16" t="s">
+      <c r="A4101" s="31" t="s">
         <v>7163</v>
       </c>
       <c r="B4101" s="25" t="s">

--- a/fix_names.xlsx
+++ b/fix_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\Sustainability manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6A7F1A-51E9-4096-8C27-BD2613BAF14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9311A1-754C-4289-92B5-3E46F6EBB8FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
